--- a/envo/document/data/1.xlsx
+++ b/envo/document/data/1.xlsx
@@ -264,9 +264,6 @@
     <t>Con gà tây - Turkey</t>
   </si>
   <si>
-    <t>Chim thiên nga - Swan</t>
-  </si>
-  <si>
     <t>Cá ngựa - Sea horse</t>
   </si>
   <si>
@@ -301,6 +298,9 @@
   </si>
   <si>
     <t>Mèo con - Kitten</t>
+  </si>
+  <si>
+    <t>Con cóc - Toad</t>
   </si>
 </sst>
 </file>
@@ -634,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="H79" sqref="H79"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -890,7 +890,7 @@
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:1">
@@ -1075,7 +1075,7 @@
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:1">
